--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmorimPedro\Downloads\asset allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65814276-B24F-4738-9E74-E0DD0443F14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5162D3-BC9D-4C54-9020-78BD60F6A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{592EECC0-E66B-4C7C-8857-781BEEA5A568}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{592EECC0-E66B-4C7C-8857-781BEEA5A568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="bench_nomes" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" hidden="1">Sheet2!$A$2:$D$8</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>SPY US Equity</t>
   </si>
@@ -57,13 +58,36 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>NomeCurto</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>CDI em Dolar</t>
+  </si>
+  <si>
+    <t>AOK ETF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -91,10 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0399B5-D431-4AA4-BB03-9A4FCFA0EAFB}">
   <dimension ref="A1:D1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24629,4 +24654,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E0447E-C627-47F5-8AD6-C6BAE859646D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>